--- a/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Purchase_Orders_Master.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Purchase_Orders_Master.xlsx
@@ -17,8 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -84,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -92,6 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -166,6 +169,91 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PO Status Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PO Register'!K2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PO Register'!$J$3:$J$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PO Register'!$K$3:$K$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +570,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -523,6 +623,15 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(H:H,"COMPLETE")</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -563,6 +672,15 @@
           <t>COMPLETE</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(H:H,"PENDING")</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -603,6 +721,15 @@
           <t>COMPLETE</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(H:H,"CANCELLED")</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1687,38 +1814,2518 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PO-2024-1029</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>26/09/2024</t>
-        </is>
+          <t>PO-2024-1031</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>45481</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bob's Hardware</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Timber &amp; fixings</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>23425</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
+        <v>64305</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>45488</v>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PO-2024-1032</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>58112</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>45368</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PO-2024-1033</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>45501</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>11578</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>45517</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PO-2024-1034</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Premium Plumbing</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>52905</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>45343</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PO-2024-1035</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>56898</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>45371</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PO-2024-1036</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>19688</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>45343</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PO-2024-1037</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>48427</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>45402</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PO-2024-1038</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>15368</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>45364</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PO-2024-1039</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>58191</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PO-2024-1040</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>18042</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>45485</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PO-2024-1041</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>59554</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>45372</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PO-2024-1042</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>15406</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PO-2024-1043</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>79629</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>45353</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PO-2024-1044</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>31746</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>45402</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PO-2024-1045</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>51752</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>45376</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PO-2024-1046</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>22718</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>45317</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PO-2024-1047</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>39049</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>45371</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PO-2024-1048</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>38380</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>45379</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PO-2024-1049</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Premium Plumbing</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>12199</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>45436</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PO-2024-1050</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>25123</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>45346</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PO-2024-1051</t>
+        </is>
+      </c>
+      <c r="B53" s="7" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>35545</v>
+      </c>
+      <c r="F53" s="7" t="n">
+        <v>45336</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PO-2024-1052</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PO-2024-1053</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>67212</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>45428</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PO-2024-1054</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>38560</v>
+      </c>
+      <c r="F56" s="7" t="n">
+        <v>45468</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PO-2024-1055</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>16557</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>45389</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PO-2024-1056</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>26878</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>45394</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PO-2024-1057</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>71499</v>
+      </c>
+      <c r="F59" s="7" t="n">
+        <v>45475</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PO-2024-1058</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>40368</v>
+      </c>
+      <c r="F60" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PO-2024-1059</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Pro Paint</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>69340</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>45393</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PO-2024-1060</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n">
+        <v>45488</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>8460</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>45509</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PO-2024-1061</t>
+        </is>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Steel Supplies</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>68469</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PO-2024-1062</t>
+        </is>
+      </c>
+      <c r="B64" s="7" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>62034</v>
+      </c>
+      <c r="F64" s="7" t="n">
+        <v>45365</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PO-2024-1063</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>29093</v>
+      </c>
+      <c r="F65" s="7" t="n">
+        <v>45337</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PO-2024-1064</t>
+        </is>
+      </c>
+      <c r="B66" s="7" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>72440</v>
+      </c>
+      <c r="F66" s="7" t="n">
+        <v>45416</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PO-2024-1065</t>
+        </is>
+      </c>
+      <c r="B67" s="7" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>35377</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>45417</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PO-2024-1066</t>
+        </is>
+      </c>
+      <c r="B68" s="7" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>59679</v>
+      </c>
+      <c r="F68" s="7" t="n">
+        <v>45470</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PO-2024-1067</t>
+        </is>
+      </c>
+      <c r="B69" s="7" t="n">
+        <v>45499</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>58894</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>45506</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PO-2024-1068</t>
+        </is>
+      </c>
+      <c r="B70" s="7" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>75717</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>45465</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PO-2024-1069</t>
+        </is>
+      </c>
+      <c r="B71" s="7" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>39522</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>45324</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PO-2024-1070</t>
+        </is>
+      </c>
+      <c r="B72" s="7" t="n">
+        <v>45480</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>57266</v>
+      </c>
+      <c r="F72" s="7" t="n">
+        <v>45499</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PO-2024-1071</t>
+        </is>
+      </c>
+      <c r="B73" s="7" t="n">
+        <v>45479</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>51096</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>45501</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PO-2024-1072</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>71828</v>
+      </c>
+      <c r="F74" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PO-2024-1073</t>
+        </is>
+      </c>
+      <c r="B75" s="7" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>56973</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>45342</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PO-2024-1074</t>
+        </is>
+      </c>
+      <c r="B76" s="7" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>42932</v>
+      </c>
+      <c r="F76" s="7" t="n">
+        <v>45336</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PO-2024-1075</t>
+        </is>
+      </c>
+      <c r="B77" s="7" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pro Paint</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>10631</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>45426</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PO-2024-1076</t>
+        </is>
+      </c>
+      <c r="B78" s="7" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Premium Plumbing</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>21937</v>
+      </c>
+      <c r="F78" s="7" t="n">
+        <v>45336</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PO-2024-1077</t>
+        </is>
+      </c>
+      <c r="B79" s="7" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Steel Supplies</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>30137</v>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>45408</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PO-2024-1078</t>
+        </is>
+      </c>
+      <c r="B80" s="7" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ace Carpentry</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>72615</v>
+      </c>
+      <c r="F80" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PO-2024-1079</t>
+        </is>
+      </c>
+      <c r="B81" s="7" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>75864</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>45326</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PO-2024-1080</t>
+        </is>
+      </c>
+      <c r="B82" s="7" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>57260</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <v>45342</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PO-2024-1081</t>
+        </is>
+      </c>
+      <c r="B83" s="7" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>60820</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PO-2024-1082</t>
+        </is>
+      </c>
+      <c r="B84" s="7" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>41773</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PO-2024-1083</t>
+        </is>
+      </c>
+      <c r="B85" s="7" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>64136</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PO-2024-1084</t>
+        </is>
+      </c>
+      <c r="B86" s="7" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>31430</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>45405</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PO-2024-1085</t>
+        </is>
+      </c>
+      <c r="B87" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>11512</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PO-2024-1086</t>
+        </is>
+      </c>
+      <c r="B88" s="7" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pro Paint</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>41065</v>
+      </c>
+      <c r="F88" s="7" t="n">
+        <v>45370</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PO-2024-1087</t>
+        </is>
+      </c>
+      <c r="B89" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Spark Electrical</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>10044</v>
+      </c>
+      <c r="F89" s="7" t="n">
+        <v>45445</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PO-2024-1088</t>
+        </is>
+      </c>
+      <c r="B90" s="7" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Steel Supplies</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>56915</v>
+      </c>
+      <c r="F90" s="7" t="n">
+        <v>45420</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PO-2024-1089</t>
+        </is>
+      </c>
+      <c r="B91" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BuildMart</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>17453</v>
+      </c>
+      <c r="F91" s="7" t="n">
+        <v>45462</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PO-2024-1090</t>
+        </is>
+      </c>
+      <c r="B92" s="7" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Premium Plumbing</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>10555</v>
+      </c>
+      <c r="F92" s="7" t="n">
+        <v>45336</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PO-2024-1091</t>
+        </is>
+      </c>
+      <c r="B93" s="7" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sydney Tiles</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>25937</v>
+      </c>
+      <c r="F93" s="7" t="n">
+        <v>45427</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PO-2024-1092</t>
+        </is>
+      </c>
+      <c r="B94" s="7" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Premium Plumbing</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 5</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>13412</v>
+      </c>
+      <c r="F94" s="7" t="n">
+        <v>45347</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PO-2024-1093</t>
+        </is>
+      </c>
+      <c r="B95" s="7" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 1</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>58890</v>
+      </c>
+      <c r="F95" s="7" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CANCELLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PO-2024-1094</t>
+        </is>
+      </c>
+      <c r="B96" s="7" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>15725</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>45354</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PO-2024-1095</t>
+        </is>
+      </c>
+      <c r="B97" s="7" t="n">
+        <v>45435</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>9953</v>
+      </c>
+      <c r="F97" s="7" t="n">
+        <v>45465</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PO-2024-1096</t>
+        </is>
+      </c>
+      <c r="B98" s="7" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>43077</v>
+      </c>
+      <c r="F98" s="7" t="n">
+        <v>45424</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PO-2024-1097</t>
+        </is>
+      </c>
+      <c r="B99" s="7" t="n">
+        <v>45469</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Concrete Co</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 4</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>15059</v>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>45498</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PO-2024-1098</t>
+        </is>
+      </c>
+      <c r="B100" s="7" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>71144</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>45382</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PO-2024-1099</t>
+        </is>
+      </c>
+      <c r="B101" s="7" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Timber Traders</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 3</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>19400</v>
+      </c>
+      <c r="F101" s="7" t="n">
+        <v>45431</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PO-2024-1100</t>
+        </is>
+      </c>
+      <c r="B102" s="7" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Steel Supplies</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Materials and services for construction - Phase 2</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>31945</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>45408</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -1729,6 +4336,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Purchase_Orders_Master.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Purchase_Orders_Master.xlsx
@@ -17,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -86,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -94,7 +93,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -173,6 +173,120 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PO Status Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PO Register'!K2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PO Register'!$J$3:$J$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PO Register'!$K$3:$K$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PO Status Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PO Register'!K2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PO Register'!$J$3:$J$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PO Register'!$K$3:$K$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
@@ -248,6 +362,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1817,8 +1975,8 @@
           <t>PO-2024-1031</t>
         </is>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>45481</v>
+      <c r="B33" s="8" t="n">
+        <v>45381</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1831,19 +1989,19 @@
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>64305</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>45488</v>
+        <v>32545</v>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>45401</v>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -1853,24 +2011,24 @@
           <t>PO-2024-1032</t>
         </is>
       </c>
-      <c r="B34" s="7" t="n">
-        <v>45341</v>
+      <c r="B34" s="8" t="n">
+        <v>45462</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E34" s="3" t="n">
-        <v>58112</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>45368</v>
+        <v>70073</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>45473</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1889,28 +2047,28 @@
           <t>PO-2024-1033</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n">
-        <v>45501</v>
+      <c r="B35" s="8" t="n">
+        <v>45375</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E35" s="3" t="n">
-        <v>11578</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>45517</v>
+        <v>38017</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>45399</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1925,24 +2083,24 @@
           <t>PO-2024-1034</t>
         </is>
       </c>
-      <c r="B36" s="7" t="n">
-        <v>45322</v>
+      <c r="B36" s="8" t="n">
+        <v>45458</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Premium Plumbing</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E36" s="3" t="n">
-        <v>52905</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>45343</v>
+        <v>7977</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>45482</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1951,7 +2109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -1961,24 +2119,24 @@
           <t>PO-2024-1035</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n">
-        <v>45356</v>
+      <c r="B37" s="8" t="n">
+        <v>45377</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>56898</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>45371</v>
+        <v>28882</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>45395</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1997,12 +2155,12 @@
           <t>PO-2024-1036</t>
         </is>
       </c>
-      <c r="B38" s="7" t="n">
-        <v>45314</v>
+      <c r="B38" s="8" t="n">
+        <v>45486</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Steel Supplies</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2011,14 +2169,14 @@
         </is>
       </c>
       <c r="E38" s="3" t="n">
-        <v>19688</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>45343</v>
+        <v>78013</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>45497</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2033,24 +2191,24 @@
           <t>PO-2024-1037</t>
         </is>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="8" t="n">
         <v>45381</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>Sydney Tiles</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E39" s="3" t="n">
-        <v>48427</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>45402</v>
+        <v>41158</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>45408</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2059,7 +2217,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -2069,28 +2227,28 @@
           <t>PO-2024-1038</t>
         </is>
       </c>
-      <c r="B40" s="7" t="n">
-        <v>45357</v>
+      <c r="B40" s="8" t="n">
+        <v>45323</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>Timber Traders</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E40" s="3" t="n">
-        <v>15368</v>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v>45364</v>
+        <v>22389</v>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>45347</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2105,8 +2263,8 @@
           <t>PO-2024-1039</t>
         </is>
       </c>
-      <c r="B41" s="7" t="n">
-        <v>45443</v>
+      <c r="B41" s="8" t="n">
+        <v>45483</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2115,14 +2273,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>58191</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>45456</v>
+        <v>41229</v>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>45498</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2131,7 +2289,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -2141,33 +2299,33 @@
           <t>PO-2024-1040</t>
         </is>
       </c>
-      <c r="B42" s="7" t="n">
-        <v>45456</v>
+      <c r="B42" s="8" t="n">
+        <v>45496</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Steel Supplies</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E42" s="3" t="n">
-        <v>18042</v>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>45485</v>
+        <v>43844</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>45515</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2177,24 +2335,24 @@
           <t>PO-2024-1041</t>
         </is>
       </c>
-      <c r="B43" s="7" t="n">
-        <v>45352</v>
+      <c r="B43" s="8" t="n">
+        <v>45429</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E43" s="3" t="n">
-        <v>59554</v>
-      </c>
-      <c r="F43" s="7" t="n">
-        <v>45372</v>
+        <v>12070</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>45453</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2203,7 +2361,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2213,24 +2371,24 @@
           <t>PO-2024-1042</t>
         </is>
       </c>
-      <c r="B44" s="7" t="n">
-        <v>45387</v>
+      <c r="B44" s="8" t="n">
+        <v>45389</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E44" s="3" t="n">
-        <v>15406</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>45413</v>
+        <v>77877</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>45412</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2239,7 +2397,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2249,12 +2407,12 @@
           <t>PO-2024-1043</t>
         </is>
       </c>
-      <c r="B45" s="7" t="n">
-        <v>45332</v>
+      <c r="B45" s="8" t="n">
+        <v>45498</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2263,10 +2421,10 @@
         </is>
       </c>
       <c r="E45" s="3" t="n">
-        <v>79629</v>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v>45353</v>
+        <v>66761</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>45527</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2275,7 +2433,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2285,24 +2443,24 @@
           <t>PO-2024-1044</t>
         </is>
       </c>
-      <c r="B46" s="7" t="n">
-        <v>45374</v>
+      <c r="B46" s="8" t="n">
+        <v>45343</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E46" s="3" t="n">
-        <v>31746</v>
-      </c>
-      <c r="F46" s="7" t="n">
-        <v>45402</v>
+        <v>24010</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>45355</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2321,12 +2479,12 @@
           <t>PO-2024-1045</t>
         </is>
       </c>
-      <c r="B47" s="7" t="n">
-        <v>45346</v>
+      <c r="B47" s="8" t="n">
+        <v>45501</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2335,19 +2493,19 @@
         </is>
       </c>
       <c r="E47" s="3" t="n">
-        <v>51752</v>
-      </c>
-      <c r="F47" s="7" t="n">
-        <v>45376</v>
+        <v>20404</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>45512</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2357,33 +2515,33 @@
           <t>PO-2024-1046</t>
         </is>
       </c>
-      <c r="B48" s="7" t="n">
-        <v>45302</v>
+      <c r="B48" s="8" t="n">
+        <v>45344</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>Steel Supplies</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E48" s="3" t="n">
-        <v>22718</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v>45317</v>
+        <v>8321</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>45369</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2551,12 @@
           <t>PO-2024-1047</t>
         </is>
       </c>
-      <c r="B49" s="7" t="n">
-        <v>45358</v>
+      <c r="B49" s="8" t="n">
+        <v>45437</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2407,14 +2565,14 @@
         </is>
       </c>
       <c r="E49" s="3" t="n">
-        <v>39049</v>
-      </c>
-      <c r="F49" s="7" t="n">
-        <v>45371</v>
+        <v>25097</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>45459</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2429,12 +2587,12 @@
           <t>PO-2024-1048</t>
         </is>
       </c>
-      <c r="B50" s="7" t="n">
-        <v>45354</v>
+      <c r="B50" s="8" t="n">
+        <v>45444</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2443,19 +2601,19 @@
         </is>
       </c>
       <c r="E50" s="3" t="n">
-        <v>38380</v>
-      </c>
-      <c r="F50" s="7" t="n">
-        <v>45379</v>
+        <v>41098</v>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>45452</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -2465,24 +2623,24 @@
           <t>PO-2024-1049</t>
         </is>
       </c>
-      <c r="B51" s="7" t="n">
-        <v>45406</v>
+      <c r="B51" s="8" t="n">
+        <v>45323</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Premium Plumbing</t>
+          <t>Timber Traders</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E51" s="3" t="n">
-        <v>12199</v>
-      </c>
-      <c r="F51" s="7" t="n">
-        <v>45436</v>
+        <v>30674</v>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>45345</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2491,7 +2649,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2501,24 +2659,24 @@
           <t>PO-2024-1050</t>
         </is>
       </c>
-      <c r="B52" s="7" t="n">
-        <v>45319</v>
+      <c r="B52" s="8" t="n">
+        <v>45409</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>Sydney Tiles</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E52" s="3" t="n">
-        <v>25123</v>
-      </c>
-      <c r="F52" s="7" t="n">
-        <v>45346</v>
+        <v>29022</v>
+      </c>
+      <c r="F52" s="8" t="n">
+        <v>45429</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2527,7 +2685,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2695,12 @@
           <t>PO-2024-1051</t>
         </is>
       </c>
-      <c r="B53" s="7" t="n">
-        <v>45315</v>
+      <c r="B53" s="8" t="n">
+        <v>45387</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>Steel Supplies</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2551,14 +2709,14 @@
         </is>
       </c>
       <c r="E53" s="3" t="n">
-        <v>35545</v>
-      </c>
-      <c r="F53" s="7" t="n">
-        <v>45336</v>
+        <v>72965</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>45414</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2573,12 +2731,12 @@
           <t>PO-2024-1052</t>
         </is>
       </c>
-      <c r="B54" s="7" t="n">
-        <v>45421</v>
+      <c r="B54" s="8" t="n">
+        <v>45439</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Timber Traders</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2587,10 +2745,10 @@
         </is>
       </c>
       <c r="E54" s="3" t="n">
-        <v>5420</v>
-      </c>
-      <c r="F54" s="7" t="n">
-        <v>45439</v>
+        <v>21477</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>45464</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2599,7 +2757,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2609,28 +2767,28 @@
           <t>PO-2024-1053</t>
         </is>
       </c>
-      <c r="B55" s="7" t="n">
-        <v>45405</v>
+      <c r="B55" s="8" t="n">
+        <v>45387</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E55" s="3" t="n">
-        <v>67212</v>
-      </c>
-      <c r="F55" s="7" t="n">
-        <v>45428</v>
+        <v>67543</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>45409</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2645,24 +2803,24 @@
           <t>PO-2024-1054</t>
         </is>
       </c>
-      <c r="B56" s="7" t="n">
-        <v>45447</v>
+      <c r="B56" s="8" t="n">
+        <v>45377</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E56" s="3" t="n">
-        <v>38560</v>
-      </c>
-      <c r="F56" s="7" t="n">
-        <v>45468</v>
+        <v>34808</v>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v>45389</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2671,7 +2829,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2839,12 @@
           <t>PO-2024-1055</t>
         </is>
       </c>
-      <c r="B57" s="7" t="n">
-        <v>45377</v>
+      <c r="B57" s="8" t="n">
+        <v>45344</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2695,19 +2853,19 @@
         </is>
       </c>
       <c r="E57" s="3" t="n">
-        <v>16557</v>
-      </c>
-      <c r="F57" s="7" t="n">
-        <v>45389</v>
+        <v>70536</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>45363</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2717,24 +2875,24 @@
           <t>PO-2024-1056</t>
         </is>
       </c>
-      <c r="B58" s="7" t="n">
-        <v>45370</v>
+      <c r="B58" s="8" t="n">
+        <v>45386</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Pro Paint</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E58" s="3" t="n">
-        <v>26878</v>
-      </c>
-      <c r="F58" s="7" t="n">
-        <v>45394</v>
+        <v>7066</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>45411</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2743,7 +2901,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2753,24 +2911,24 @@
           <t>PO-2024-1057</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n">
-        <v>45450</v>
+      <c r="B59" s="8" t="n">
+        <v>45311</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E59" s="3" t="n">
-        <v>71499</v>
-      </c>
-      <c r="F59" s="7" t="n">
-        <v>45475</v>
+        <v>43711</v>
+      </c>
+      <c r="F59" s="8" t="n">
+        <v>45338</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2789,24 +2947,24 @@
           <t>PO-2024-1058</t>
         </is>
       </c>
-      <c r="B60" s="7" t="n">
-        <v>45424</v>
+      <c r="B60" s="8" t="n">
+        <v>45499</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E60" s="3" t="n">
-        <v>40368</v>
-      </c>
-      <c r="F60" s="7" t="n">
-        <v>45454</v>
+        <v>14145</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>45506</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2825,33 +2983,33 @@
           <t>PO-2024-1059</t>
         </is>
       </c>
-      <c r="B61" s="7" t="n">
-        <v>45368</v>
+      <c r="B61" s="8" t="n">
+        <v>45433</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pro Paint</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E61" s="3" t="n">
-        <v>69340</v>
-      </c>
-      <c r="F61" s="7" t="n">
-        <v>45393</v>
+        <v>17143</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>45461</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -2861,33 +3019,33 @@
           <t>PO-2024-1060</t>
         </is>
       </c>
-      <c r="B62" s="7" t="n">
-        <v>45488</v>
+      <c r="B62" s="8" t="n">
+        <v>45418</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E62" s="3" t="n">
-        <v>8460</v>
-      </c>
-      <c r="F62" s="7" t="n">
-        <v>45509</v>
+        <v>63837</v>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v>45443</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -2897,24 +3055,24 @@
           <t>PO-2024-1061</t>
         </is>
       </c>
-      <c r="B63" s="7" t="n">
-        <v>45369</v>
+      <c r="B63" s="8" t="n">
+        <v>45375</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Steel Supplies</t>
+          <t>Sydney Tiles</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E63" s="3" t="n">
-        <v>68469</v>
-      </c>
-      <c r="F63" s="7" t="n">
-        <v>45383</v>
+        <v>32706</v>
+      </c>
+      <c r="F63" s="8" t="n">
+        <v>45400</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2933,28 +3091,28 @@
           <t>PO-2024-1062</t>
         </is>
       </c>
-      <c r="B64" s="7" t="n">
-        <v>45358</v>
+      <c r="B64" s="8" t="n">
+        <v>45352</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E64" s="3" t="n">
-        <v>62034</v>
-      </c>
-      <c r="F64" s="7" t="n">
-        <v>45365</v>
+        <v>55242</v>
+      </c>
+      <c r="F64" s="8" t="n">
+        <v>45378</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2969,12 +3127,12 @@
           <t>PO-2024-1063</t>
         </is>
       </c>
-      <c r="B65" s="7" t="n">
-        <v>45317</v>
+      <c r="B65" s="8" t="n">
+        <v>45454</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Steel Supplies</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2983,10 +3141,10 @@
         </is>
       </c>
       <c r="E65" s="3" t="n">
-        <v>29093</v>
-      </c>
-      <c r="F65" s="7" t="n">
-        <v>45337</v>
+        <v>16495</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>45480</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2995,7 +3153,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -3005,24 +3163,24 @@
           <t>PO-2024-1064</t>
         </is>
       </c>
-      <c r="B66" s="7" t="n">
-        <v>45397</v>
+      <c r="B66" s="8" t="n">
+        <v>45308</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E66" s="3" t="n">
-        <v>72440</v>
-      </c>
-      <c r="F66" s="7" t="n">
-        <v>45416</v>
+        <v>28068</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <v>45338</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3041,24 +3199,24 @@
           <t>PO-2024-1065</t>
         </is>
       </c>
-      <c r="B67" s="7" t="n">
-        <v>45394</v>
+      <c r="B67" s="8" t="n">
+        <v>45360</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Timber Traders</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E67" s="3" t="n">
-        <v>35377</v>
-      </c>
-      <c r="F67" s="7" t="n">
-        <v>45417</v>
+        <v>54771</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>45385</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3077,24 +3235,24 @@
           <t>PO-2024-1066</t>
         </is>
       </c>
-      <c r="B68" s="7" t="n">
-        <v>45444</v>
+      <c r="B68" s="8" t="n">
+        <v>45467</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Sydney Tiles</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E68" s="3" t="n">
-        <v>59679</v>
-      </c>
-      <c r="F68" s="7" t="n">
-        <v>45470</v>
+        <v>43235</v>
+      </c>
+      <c r="F68" s="8" t="n">
+        <v>45478</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3113,12 +3271,12 @@
           <t>PO-2024-1067</t>
         </is>
       </c>
-      <c r="B69" s="7" t="n">
-        <v>45499</v>
+      <c r="B69" s="8" t="n">
+        <v>45471</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Timber Traders</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3127,10 +3285,10 @@
         </is>
       </c>
       <c r="E69" s="3" t="n">
-        <v>58894</v>
-      </c>
-      <c r="F69" s="7" t="n">
-        <v>45506</v>
+        <v>68192</v>
+      </c>
+      <c r="F69" s="8" t="n">
+        <v>45498</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3149,24 +3307,24 @@
           <t>PO-2024-1068</t>
         </is>
       </c>
-      <c r="B70" s="7" t="n">
-        <v>45444</v>
+      <c r="B70" s="8" t="n">
+        <v>45346</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E70" s="3" t="n">
-        <v>75717</v>
-      </c>
-      <c r="F70" s="7" t="n">
-        <v>45465</v>
+        <v>52039</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v>45361</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3175,7 +3333,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -3185,28 +3343,28 @@
           <t>PO-2024-1069</t>
         </is>
       </c>
-      <c r="B71" s="7" t="n">
-        <v>45304</v>
+      <c r="B71" s="8" t="n">
+        <v>45393</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E71" s="3" t="n">
-        <v>39522</v>
-      </c>
-      <c r="F71" s="7" t="n">
-        <v>45324</v>
+        <v>40972</v>
+      </c>
+      <c r="F71" s="8" t="n">
+        <v>45416</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3221,33 +3379,33 @@
           <t>PO-2024-1070</t>
         </is>
       </c>
-      <c r="B72" s="7" t="n">
-        <v>45480</v>
+      <c r="B72" s="8" t="n">
+        <v>45357</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>Spark Electrical</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E72" s="3" t="n">
-        <v>57266</v>
-      </c>
-      <c r="F72" s="7" t="n">
-        <v>45499</v>
+        <v>25422</v>
+      </c>
+      <c r="F72" s="8" t="n">
+        <v>45374</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -3257,8 +3415,8 @@
           <t>PO-2024-1071</t>
         </is>
       </c>
-      <c r="B73" s="7" t="n">
-        <v>45479</v>
+      <c r="B73" s="8" t="n">
+        <v>45361</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3267,14 +3425,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E73" s="3" t="n">
-        <v>51096</v>
-      </c>
-      <c r="F73" s="7" t="n">
-        <v>45501</v>
+        <v>47249</v>
+      </c>
+      <c r="F73" s="8" t="n">
+        <v>45384</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3293,12 +3451,12 @@
           <t>PO-2024-1072</t>
         </is>
       </c>
-      <c r="B74" s="7" t="n">
-        <v>45405</v>
+      <c r="B74" s="8" t="n">
+        <v>45420</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>Timber Traders</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3307,19 +3465,19 @@
         </is>
       </c>
       <c r="E74" s="3" t="n">
-        <v>71828</v>
-      </c>
-      <c r="F74" s="7" t="n">
-        <v>45421</v>
+        <v>70653</v>
+      </c>
+      <c r="F74" s="8" t="n">
+        <v>45448</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3329,24 +3487,24 @@
           <t>PO-2024-1073</t>
         </is>
       </c>
-      <c r="B75" s="7" t="n">
-        <v>45318</v>
+      <c r="B75" s="8" t="n">
+        <v>45481</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E75" s="3" t="n">
-        <v>56973</v>
-      </c>
-      <c r="F75" s="7" t="n">
-        <v>45342</v>
+        <v>47342</v>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>45489</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3355,7 +3513,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3365,33 +3523,33 @@
           <t>PO-2024-1074</t>
         </is>
       </c>
-      <c r="B76" s="7" t="n">
-        <v>45324</v>
+      <c r="B76" s="8" t="n">
+        <v>45399</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Spark Electrical</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E76" s="3" t="n">
-        <v>42932</v>
-      </c>
-      <c r="F76" s="7" t="n">
-        <v>45336</v>
+        <v>8735</v>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v>45414</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -3401,28 +3559,28 @@
           <t>PO-2024-1075</t>
         </is>
       </c>
-      <c r="B77" s="7" t="n">
-        <v>45397</v>
+      <c r="B77" s="8" t="n">
+        <v>45334</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Pro Paint</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E77" s="3" t="n">
-        <v>10631</v>
-      </c>
-      <c r="F77" s="7" t="n">
-        <v>45426</v>
+        <v>36081</v>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>45364</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3437,24 +3595,24 @@
           <t>PO-2024-1076</t>
         </is>
       </c>
-      <c r="B78" s="7" t="n">
-        <v>45314</v>
+      <c r="B78" s="8" t="n">
+        <v>45344</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Premium Plumbing</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E78" s="3" t="n">
-        <v>21937</v>
-      </c>
-      <c r="F78" s="7" t="n">
-        <v>45336</v>
+        <v>67334</v>
+      </c>
+      <c r="F78" s="8" t="n">
+        <v>45365</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3463,7 +3621,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -3473,24 +3631,24 @@
           <t>PO-2024-1077</t>
         </is>
       </c>
-      <c r="B79" s="7" t="n">
-        <v>45399</v>
+      <c r="B79" s="8" t="n">
+        <v>45393</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Steel Supplies</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E79" s="3" t="n">
-        <v>30137</v>
-      </c>
-      <c r="F79" s="7" t="n">
-        <v>45408</v>
+        <v>47221</v>
+      </c>
+      <c r="F79" s="8" t="n">
+        <v>45418</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3509,24 +3667,24 @@
           <t>PO-2024-1078</t>
         </is>
       </c>
-      <c r="B80" s="7" t="n">
-        <v>45401</v>
+      <c r="B80" s="8" t="n">
+        <v>45363</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ace Carpentry</t>
+          <t>Pro Paint</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E80" s="3" t="n">
-        <v>72615</v>
-      </c>
-      <c r="F80" s="7" t="n">
-        <v>45421</v>
+        <v>72730</v>
+      </c>
+      <c r="F80" s="8" t="n">
+        <v>45392</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3535,7 +3693,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3703,12 @@
           <t>PO-2024-1079</t>
         </is>
       </c>
-      <c r="B81" s="7" t="n">
-        <v>45302</v>
+      <c r="B81" s="8" t="n">
+        <v>45445</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3559,19 +3717,19 @@
         </is>
       </c>
       <c r="E81" s="3" t="n">
-        <v>75864</v>
-      </c>
-      <c r="F81" s="7" t="n">
-        <v>45326</v>
+        <v>41508</v>
+      </c>
+      <c r="F81" s="8" t="n">
+        <v>45452</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3581,24 +3739,24 @@
           <t>PO-2024-1080</t>
         </is>
       </c>
-      <c r="B82" s="7" t="n">
-        <v>45317</v>
+      <c r="B82" s="8" t="n">
+        <v>45491</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Spark Electrical</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E82" s="3" t="n">
-        <v>57260</v>
-      </c>
-      <c r="F82" s="7" t="n">
-        <v>45342</v>
+        <v>64881</v>
+      </c>
+      <c r="F82" s="8" t="n">
+        <v>45504</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3607,7 +3765,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3617,33 +3775,33 @@
           <t>PO-2024-1081</t>
         </is>
       </c>
-      <c r="B83" s="7" t="n">
-        <v>45425</v>
+      <c r="B83" s="8" t="n">
+        <v>45329</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Pro Paint</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 1</t>
         </is>
       </c>
       <c r="E83" s="3" t="n">
-        <v>60820</v>
-      </c>
-      <c r="F83" s="7" t="n">
-        <v>45447</v>
+        <v>76767</v>
+      </c>
+      <c r="F83" s="8" t="n">
+        <v>45355</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3653,24 +3811,24 @@
           <t>PO-2024-1082</t>
         </is>
       </c>
-      <c r="B84" s="7" t="n">
-        <v>45344</v>
+      <c r="B84" s="8" t="n">
+        <v>45381</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E84" s="3" t="n">
-        <v>41773</v>
-      </c>
-      <c r="F84" s="7" t="n">
-        <v>45358</v>
+        <v>41413</v>
+      </c>
+      <c r="F84" s="8" t="n">
+        <v>45407</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3689,24 +3847,24 @@
           <t>PO-2024-1083</t>
         </is>
       </c>
-      <c r="B85" s="7" t="n">
-        <v>45423</v>
+      <c r="B85" s="8" t="n">
+        <v>45382</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Steel Supplies</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E85" s="3" t="n">
-        <v>64136</v>
-      </c>
-      <c r="F85" s="7" t="n">
-        <v>45447</v>
+        <v>17048</v>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>45410</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3715,7 +3873,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -3725,24 +3883,24 @@
           <t>PO-2024-1084</t>
         </is>
       </c>
-      <c r="B86" s="7" t="n">
-        <v>45390</v>
+      <c r="B86" s="8" t="n">
+        <v>45417</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E86" s="3" t="n">
-        <v>31430</v>
-      </c>
-      <c r="F86" s="7" t="n">
-        <v>45405</v>
+        <v>49688</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>45441</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3751,7 +3909,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -3761,24 +3919,24 @@
           <t>PO-2024-1085</t>
         </is>
       </c>
-      <c r="B87" s="7" t="n">
-        <v>45432</v>
+      <c r="B87" s="8" t="n">
+        <v>45495</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E87" s="3" t="n">
-        <v>11512</v>
-      </c>
-      <c r="F87" s="7" t="n">
-        <v>45456</v>
+        <v>38316</v>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>45503</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3787,7 +3945,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -3797,24 +3955,24 @@
           <t>PO-2024-1086</t>
         </is>
       </c>
-      <c r="B88" s="7" t="n">
-        <v>45358</v>
+      <c r="B88" s="8" t="n">
+        <v>45315</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pro Paint</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E88" s="3" t="n">
-        <v>41065</v>
-      </c>
-      <c r="F88" s="7" t="n">
-        <v>45370</v>
+        <v>36653</v>
+      </c>
+      <c r="F88" s="8" t="n">
+        <v>45345</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3823,7 +3981,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3833,28 +3991,28 @@
           <t>PO-2024-1087</t>
         </is>
       </c>
-      <c r="B89" s="7" t="n">
-        <v>45434</v>
+      <c r="B89" s="8" t="n">
+        <v>45303</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Spark Electrical</t>
+          <t>BuildMart</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E89" s="3" t="n">
-        <v>10044</v>
-      </c>
-      <c r="F89" s="7" t="n">
-        <v>45445</v>
+        <v>20753</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>45326</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3869,24 +4027,24 @@
           <t>PO-2024-1088</t>
         </is>
       </c>
-      <c r="B90" s="7" t="n">
-        <v>45406</v>
+      <c r="B90" s="8" t="n">
+        <v>45385</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Steel Supplies</t>
+          <t>Pro Paint</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E90" s="3" t="n">
-        <v>56915</v>
-      </c>
-      <c r="F90" s="7" t="n">
-        <v>45420</v>
+        <v>76899</v>
+      </c>
+      <c r="F90" s="8" t="n">
+        <v>45397</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3905,12 +4063,12 @@
           <t>PO-2024-1089</t>
         </is>
       </c>
-      <c r="B91" s="7" t="n">
-        <v>45434</v>
+      <c r="B91" s="8" t="n">
+        <v>45400</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BuildMart</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3919,10 +4077,10 @@
         </is>
       </c>
       <c r="E91" s="3" t="n">
-        <v>17453</v>
-      </c>
-      <c r="F91" s="7" t="n">
-        <v>45462</v>
+        <v>38995</v>
+      </c>
+      <c r="F91" s="8" t="n">
+        <v>45425</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3931,7 +4089,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -3941,8 +4099,8 @@
           <t>PO-2024-1090</t>
         </is>
       </c>
-      <c r="B92" s="7" t="n">
-        <v>45309</v>
+      <c r="B92" s="8" t="n">
+        <v>45315</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3951,18 +4109,18 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E92" s="3" t="n">
-        <v>10555</v>
-      </c>
-      <c r="F92" s="7" t="n">
-        <v>45336</v>
+        <v>12321</v>
+      </c>
+      <c r="F92" s="8" t="n">
+        <v>45340</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3977,12 +4135,12 @@
           <t>PO-2024-1091</t>
         </is>
       </c>
-      <c r="B93" s="7" t="n">
-        <v>45411</v>
+      <c r="B93" s="8" t="n">
+        <v>45473</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sydney Tiles</t>
+          <t>Spark Electrical</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3991,14 +4149,14 @@
         </is>
       </c>
       <c r="E93" s="3" t="n">
-        <v>25937</v>
-      </c>
-      <c r="F93" s="7" t="n">
-        <v>45427</v>
+        <v>57212</v>
+      </c>
+      <c r="F93" s="8" t="n">
+        <v>45498</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4013,24 +4171,24 @@
           <t>PO-2024-1092</t>
         </is>
       </c>
-      <c r="B94" s="7" t="n">
-        <v>45318</v>
+      <c r="B94" s="8" t="n">
+        <v>45328</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Premium Plumbing</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 5</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E94" s="3" t="n">
-        <v>13412</v>
-      </c>
-      <c r="F94" s="7" t="n">
-        <v>45347</v>
+        <v>49732</v>
+      </c>
+      <c r="F94" s="8" t="n">
+        <v>45352</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4039,7 +4197,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -4049,33 +4207,33 @@
           <t>PO-2024-1093</t>
         </is>
       </c>
-      <c r="B95" s="7" t="n">
-        <v>45358</v>
+      <c r="B95" s="8" t="n">
+        <v>45410</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Premium Plumbing</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 1</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E95" s="3" t="n">
-        <v>58890</v>
-      </c>
-      <c r="F95" s="7" t="n">
-        <v>45386</v>
+        <v>73515</v>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>45419</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>CANCELLED</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -4085,28 +4243,28 @@
           <t>PO-2024-1094</t>
         </is>
       </c>
-      <c r="B96" s="7" t="n">
-        <v>45339</v>
+      <c r="B96" s="8" t="n">
+        <v>45459</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Sydney Tiles</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E96" s="3" t="n">
-        <v>15725</v>
-      </c>
-      <c r="F96" s="7" t="n">
-        <v>45354</v>
+        <v>50312</v>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>45489</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4121,28 +4279,28 @@
           <t>PO-2024-1095</t>
         </is>
       </c>
-      <c r="B97" s="7" t="n">
-        <v>45435</v>
+      <c r="B97" s="8" t="n">
+        <v>45433</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>Spark Electrical</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E97" s="3" t="n">
-        <v>9953</v>
-      </c>
-      <c r="F97" s="7" t="n">
-        <v>45465</v>
+        <v>40114</v>
+      </c>
+      <c r="F97" s="8" t="n">
+        <v>45454</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4157,24 +4315,24 @@
           <t>PO-2024-1096</t>
         </is>
       </c>
-      <c r="B98" s="7" t="n">
-        <v>45409</v>
+      <c r="B98" s="8" t="n">
+        <v>45359</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E98" s="3" t="n">
-        <v>43077</v>
-      </c>
-      <c r="F98" s="7" t="n">
-        <v>45424</v>
+        <v>71843</v>
+      </c>
+      <c r="F98" s="8" t="n">
+        <v>45375</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4183,7 +4341,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -4193,24 +4351,24 @@
           <t>PO-2024-1097</t>
         </is>
       </c>
-      <c r="B99" s="7" t="n">
-        <v>45469</v>
+      <c r="B99" s="8" t="n">
+        <v>45352</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Concrete Co</t>
+          <t>Ace Carpentry</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 4</t>
+          <t>Materials and services for construction - Phase 3</t>
         </is>
       </c>
       <c r="E99" s="3" t="n">
-        <v>15059</v>
-      </c>
-      <c r="F99" s="7" t="n">
-        <v>45498</v>
+        <v>38621</v>
+      </c>
+      <c r="F99" s="8" t="n">
+        <v>45363</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4219,7 +4377,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -4229,24 +4387,24 @@
           <t>PO-2024-1098</t>
         </is>
       </c>
-      <c r="B100" s="7" t="n">
-        <v>45360</v>
+      <c r="B100" s="8" t="n">
+        <v>45489</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Spark Electrical</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 4</t>
         </is>
       </c>
       <c r="E100" s="3" t="n">
-        <v>71144</v>
-      </c>
-      <c r="F100" s="7" t="n">
-        <v>45382</v>
+        <v>40312</v>
+      </c>
+      <c r="F100" s="8" t="n">
+        <v>45516</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4255,7 +4413,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -4265,24 +4423,24 @@
           <t>PO-2024-1099</t>
         </is>
       </c>
-      <c r="B101" s="7" t="n">
-        <v>45419</v>
+      <c r="B101" s="8" t="n">
+        <v>45395</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Timber Traders</t>
+          <t>Concrete Co</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 3</t>
+          <t>Materials and services for construction - Phase 2</t>
         </is>
       </c>
       <c r="E101" s="3" t="n">
-        <v>19400</v>
-      </c>
-      <c r="F101" s="7" t="n">
-        <v>45431</v>
+        <v>72816</v>
+      </c>
+      <c r="F101" s="8" t="n">
+        <v>45407</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4291,7 +4449,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>CANCELLED</t>
         </is>
       </c>
     </row>
@@ -4301,8 +4459,8 @@
           <t>PO-2024-1100</t>
         </is>
       </c>
-      <c r="B102" s="7" t="n">
-        <v>45390</v>
+      <c r="B102" s="8" t="n">
+        <v>45426</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -4311,14 +4469,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Materials and services for construction - Phase 2</t>
+          <t>Materials and services for construction - Phase 5</t>
         </is>
       </c>
       <c r="E102" s="3" t="n">
-        <v>31945</v>
-      </c>
-      <c r="F102" s="7" t="n">
-        <v>45408</v>
+        <v>7006</v>
+      </c>
+      <c r="F102" s="8" t="n">
+        <v>45437</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4327,7 +4485,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
